--- a/biology/Médecine/Berliner_klinische_Wochenschrift/Berliner_klinische_Wochenschrift.xlsx
+++ b/biology/Médecine/Berliner_klinische_Wochenschrift/Berliner_klinische_Wochenschrift.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Berliner klinische Wochenschrift (Revue clinique hebdomadaire de Berlin) est une ancienne revue médicale en langue allemande éditée par Springer Verlag, ayant paru chaque semaine de 1864 à 1922[1].
+Le Berliner klinische Wochenschrift (Revue clinique hebdomadaire de Berlin) est une ancienne revue médicale en langue allemande éditée par Springer Verlag, ayant paru chaque semaine de 1864 à 1922.
 Fondé en 1864 par L.C. Posner, L. Waldenburg et  C.A. Ewald, le Berliner klinische Wochenschrift disparaît sous ce titre en 1922, par fusion avec la revue Therapeutische Monatsheft pour prendre le nom de Klinische Wochenschrift[N 1]. De nombreux articles originaux et fondateurs en médecine ont été publiés dans le Berliner klinische Wochenschrift.
 </t>
         </is>
